--- a/individual_results/avey/497.xlsx
+++ b/individual_results/avey/497.xlsx
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.25</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.1666666666666667</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
         <v>0.3333333333333333</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.3333333333333333</v>
@@ -698,16 +698,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="n">
         <v>0.2857142857142858</v>
@@ -715,21 +713,15 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.1818181818181818</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.2222222222222222</v>
       </c>
@@ -759,16 +751,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="C5" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="F5" t="n">
         <v>0.3125</v>
@@ -776,21 +766,15 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.625</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
         <v>0.2777777777777777</v>
       </c>
@@ -820,16 +804,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5160538258158408</v>
+        <v>0.4702019977678391</v>
       </c>
       <c r="C6" t="n">
         <v>0.9467676761267002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06717171396683416</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8124242481930318</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="F6" t="n">
         <v>0.7452525342261976</v>
@@ -844,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1736363617134338</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -856,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1064646477465997</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0.319393943239799</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06717171396683416</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.1064646477465997</v>
